--- a/outputs-HGR-r202-archive/g__CAG-488_train.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-488_train.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,23 +768,23 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_1.fasta</t>
+          <t>label_UMGS197_0.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5545617813132073</v>
+        <v>0.619371613691065</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4175263560019112</v>
+        <v>0.3647300112087522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002722898208017503</v>
+        <v>3.721009798447829e-13</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02518896447686414</v>
+        <v>0.01589837509981084</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5545617813132073</v>
+        <v>0.619371613691065</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -795,23 +795,23 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_10.fasta</t>
+          <t>label_UMGS197_5.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4848165370447025</v>
+        <v>0.6757118475640066</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3729447888220599</v>
+        <v>0.2892574698533096</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03134308737866917</v>
+        <v>1.861958287511994e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1108955867545685</v>
+        <v>0.03503068258249759</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4848165370447025</v>
+        <v>0.6757118475640066</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -822,23 +822,23 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_15.fasta</t>
+          <t>label_UMGS197_6.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.627143271795072</v>
+        <v>0.6922851947393627</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2436460363610344</v>
+        <v>0.2730669276022802</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01589875479950678</v>
+        <v>3.248268482082238e-13</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1133119370443868</v>
+        <v>0.03464787765803222</v>
       </c>
       <c r="F12" t="n">
-        <v>0.627143271795072</v>
+        <v>0.6922851947393627</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -849,104 +849,104 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_20.fasta</t>
+          <t>label_UMGS197_11.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4266073844932737</v>
+        <v>0.4722378900170533</v>
       </c>
       <c r="C13" t="n">
-        <v>0.428980499652844</v>
+        <v>0.3582125174332419</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03632256883196663</v>
+        <v>0.1076781374996416</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1080895470219157</v>
+        <v>0.06187145505006326</v>
       </c>
       <c r="F13" t="n">
-        <v>0.428980499652844</v>
+        <v>0.4722378900170533</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_0.fasta</t>
+          <t>label_UMGS197_13.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.619371613691065</v>
+        <v>0.4023518043699967</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3647300112087522</v>
+        <v>0.5936080059809241</v>
       </c>
       <c r="D14" t="n">
-        <v>3.721009798447829e-13</v>
+        <v>0.00122277469357709</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01589837509981084</v>
+        <v>0.002817414955502169</v>
       </c>
       <c r="F14" t="n">
-        <v>0.619371613691065</v>
+        <v>0.5936080059809241</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_5.fasta</t>
+          <t>label_UMGS197_16.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6757118475640066</v>
+        <v>0.2522551197083573</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2892574698533096</v>
+        <v>0.7086398349665957</v>
       </c>
       <c r="D15" t="n">
-        <v>1.861958287511994e-13</v>
+        <v>0.0008005053448525097</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03503068258249759</v>
+        <v>0.0383045399801944</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6757118475640066</v>
+        <v>0.7086398349665957</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_6.fasta</t>
+          <t>label_UMGS197_17.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6922851947393627</v>
+        <v>0.4217843262354406</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2730669276022802</v>
+        <v>0.3757851400270589</v>
       </c>
       <c r="D16" t="n">
-        <v>3.248268482082238e-13</v>
+        <v>0.05873222167611886</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03464787765803222</v>
+        <v>0.1436983120613818</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6922851947393627</v>
+        <v>0.4217843262354406</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -957,50 +957,50 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_11.fasta</t>
+          <t>label_UMGS197_22.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4722378900170533</v>
+        <v>0.3453625940367826</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3582125174332419</v>
+        <v>0.6262851847783754</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1076781374996416</v>
+        <v>0.01238643380334501</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06187145505006326</v>
+        <v>0.01596578738149701</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4722378900170533</v>
+        <v>0.6262851847783754</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_13.fasta</t>
+          <t>label_UMGS197_23.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4023518043699967</v>
+        <v>0.08653921002077919</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5936080059809241</v>
+        <v>0.9051346154799382</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00122277469357709</v>
+        <v>0.005539506879177569</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002817414955502169</v>
+        <v>0.00278666762010495</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5936080059809241</v>
+        <v>0.9051346154799382</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1011,23 +1011,23 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_16.fasta</t>
+          <t>label_UMGS197_19.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2522551197083573</v>
+        <v>0.4598796601545671</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7086398349665957</v>
+        <v>0.4827679198386927</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0008005053448525097</v>
+        <v>1.549372256044019e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0383045399801944</v>
+        <v>0.05735242000658525</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7086398349665957</v>
+        <v>0.4827679198386927</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1038,23 +1038,23 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_17.fasta</t>
+          <t>label_UMGS197_2.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4217843262354406</v>
+        <v>0.6266173909064888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3757851400270589</v>
+        <v>0.3683293389818762</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05873222167611886</v>
+        <v>9.675923763970251e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1436983120613818</v>
+        <v>0.005053270110667458</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4217843262354406</v>
+        <v>0.6266173909064888</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1065,104 +1065,104 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_22.fasta</t>
+          <t>label_UMGS197_26.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3453625940367826</v>
+        <v>0.04464946451749054</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6262851847783754</v>
+        <v>0.07519670833910885</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01238643380334501</v>
+        <v>2.224122837719884e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01596578738149701</v>
+        <v>0.8801538271433784</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6262851847783754</v>
+        <v>0.8801538271433784</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp900554995</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_23.fasta</t>
+          <t>label_UMGS197_27.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.08653921002077919</v>
+        <v>0.07903818068372548</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9051346154799382</v>
+        <v>0.0201123362289665</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005539506879177569</v>
+        <v>2.2211132058675e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00278666762010495</v>
+        <v>0.9008494830872859</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9051346154799382</v>
+        <v>0.9008494830872859</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp900554995</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_19.fasta</t>
+          <t>label_UMGS197_7.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4598796601545671</v>
+        <v>0.5085794913323498</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4827679198386927</v>
+        <v>0.4697868926121503</v>
       </c>
       <c r="D23" t="n">
-        <v>1.549372256044019e-13</v>
+        <v>2.849403027146079e-12</v>
       </c>
       <c r="E23" t="n">
-        <v>0.05735242000658525</v>
+        <v>0.0216336160526504</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4827679198386927</v>
+        <v>0.5085794913323498</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_2.fasta</t>
+          <t>label_UMGS197_8.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6266173909064888</v>
+        <v>0.5039445683858379</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3683293389818762</v>
+        <v>0.4954526101623127</v>
       </c>
       <c r="D24" t="n">
-        <v>9.675923763970251e-13</v>
+        <v>1.041330589152587e-13</v>
       </c>
       <c r="E24" t="n">
-        <v>0.005053270110667458</v>
+        <v>0.0006028214517453806</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6266173909064888</v>
+        <v>0.5039445683858379</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1173,77 +1173,77 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_26.fasta</t>
+          <t>label_UMGS197_9.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04464946451749054</v>
+        <v>0.6326446193285494</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07519670833910885</v>
+        <v>0.2840479066152138</v>
       </c>
       <c r="D25" t="n">
-        <v>2.224122837719884e-14</v>
+        <v>9.299728472788019e-12</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8801538271433784</v>
+        <v>0.08330747404693709</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8801538271433784</v>
+        <v>0.6326446193285494</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp900554995</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_27.fasta</t>
+          <t>label_UMGS197_12.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07903818068372548</v>
+        <v>0.4297363874334449</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0201123362289665</v>
+        <v>0.505193464604485</v>
       </c>
       <c r="D26" t="n">
-        <v>2.2211132058675e-14</v>
+        <v>0.01888719880494211</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9008494830872859</v>
+        <v>0.04618294915712796</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9008494830872859</v>
+        <v>0.505193464604485</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp900554995</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_7.fasta</t>
+          <t>label_UMGS197_14.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5085794913323498</v>
+        <v>0.4282651033392567</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4697868926121503</v>
+        <v>0.4034529217695045</v>
       </c>
       <c r="D27" t="n">
-        <v>2.849403027146079e-12</v>
+        <v>0.1339417110472177</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0216336160526504</v>
+        <v>0.03434026384402097</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5085794913323498</v>
+        <v>0.4282651033392567</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1254,77 +1254,77 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_8.fasta</t>
+          <t>label_UMGS197_18.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5039445683858379</v>
+        <v>0.414013758015393</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4954526101623127</v>
+        <v>0.4718802973892374</v>
       </c>
       <c r="D28" t="n">
-        <v>1.041330589152587e-13</v>
+        <v>0.02287519825313961</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0006028214517453806</v>
+        <v>0.09123074634223002</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5039445683858379</v>
+        <v>0.4718802973892374</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_9.fasta</t>
+          <t>label_UMGS197_21.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6326446193285494</v>
+        <v>0.2732275898058085</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2840479066152138</v>
+        <v>0.4247031360304391</v>
       </c>
       <c r="D29" t="n">
-        <v>9.299728472788019e-12</v>
+        <v>0.005524442231379426</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08330747404693709</v>
+        <v>0.296544831932373</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6326446193285494</v>
+        <v>0.4247031360304391</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_12.fasta</t>
+          <t>label_UMGS197_24.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4297363874334449</v>
+        <v>0.2958247639251365</v>
       </c>
       <c r="C30" t="n">
-        <v>0.505193464604485</v>
+        <v>0.4864725587938651</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01888719880494211</v>
+        <v>0.03120503990722311</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04618294915712796</v>
+        <v>0.1864976373737753</v>
       </c>
       <c r="F30" t="n">
-        <v>0.505193464604485</v>
+        <v>0.4864725587938651</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1335,187 +1335,79 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_14.fasta</t>
+          <t>label_UMGS197_25.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4282651033392567</v>
+        <v>0.213345135727515</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4034529217695045</v>
+        <v>0.5022555091549019</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1339417110472177</v>
+        <v>0.0804581330844872</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03434026384402097</v>
+        <v>0.2039412220330958</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4282651033392567</v>
+        <v>0.5022555091549019</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_18.fasta</t>
+          <t>label_UMGS197_3.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.414013758015393</v>
+        <v>0.5067347469548479</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4718802973892374</v>
+        <v>0.3563809024780503</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02287519825313961</v>
+        <v>0.07149062973679672</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09123074634223002</v>
+        <v>0.0653937208303051</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4718802973892374</v>
+        <v>0.5067347469548479</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS197_21.fasta</t>
+          <t>label_UMGS197_4.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2732275898058085</v>
+        <v>0.4611958979596453</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4247031360304391</v>
+        <v>0.4149700036736966</v>
       </c>
       <c r="D33" t="n">
-        <v>0.005524442231379426</v>
+        <v>0.07947965526998435</v>
       </c>
       <c r="E33" t="n">
-        <v>0.296544831932373</v>
+        <v>0.04435444309667372</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4247031360304391</v>
+        <v>0.4611958979596453</v>
       </c>
       <c r="G33" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS197_24.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.2958247639251365</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.4864725587938651</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.03120503990722311</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.1864976373737753</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.4864725587938651</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS197_25.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.213345135727515</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5022555091549019</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.0804581330844872</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.2039412220330958</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.5022555091549019</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS197_3.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5067347469548479</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.3563809024780503</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.07149062973679672</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0653937208303051</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.5067347469548479</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434055</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS197_4.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.4611958979596453</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.4149700036736966</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.07947965526998435</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.04435444309667372</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.4611958979596453</v>
-      </c>
-      <c r="G37" t="inlineStr">
         <is>
           <t>s__CAG-488 sp000434055</t>
         </is>
@@ -1532,7 +1424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1850,50 +1742,50 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_12.fasta</t>
+          <t>label_UMGS340_0.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4745527945123832</v>
+        <v>0.3920734007463739</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3831382990721797</v>
+        <v>0.6039663887660969</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05265367207233961</v>
+        <v>1.750147308352189e-13</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08965523434309752</v>
+        <v>0.003960210487354215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4745527945123832</v>
+        <v>0.6039663887660969</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_16.fasta</t>
+          <t>label_UMGS340_19.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3592864776312897</v>
+        <v>0.1883094799004938</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5995180695162258</v>
+        <v>0.7451490886181116</v>
       </c>
       <c r="D13" t="n">
-        <v>9.598659651349264e-05</v>
+        <v>8.607050023286437e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04109946625597113</v>
+        <v>0.06654143148130849</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5995180695162258</v>
+        <v>0.7451490886181116</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1904,23 +1796,23 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_22.fasta</t>
+          <t>label_UMGS340_20.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3299314855938846</v>
+        <v>0.2876762287632524</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6436452107429476</v>
+        <v>0.6969231786118592</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0009229679040290275</v>
+        <v>1.220394374652255e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02550033575913885</v>
+        <v>0.01540059262476647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6436452107429476</v>
+        <v>0.6969231786118592</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1931,23 +1823,23 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_23.fasta</t>
+          <t>label_UMGS340_31.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4015776687341561</v>
+        <v>0.217299808979614</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5055048690679764</v>
+        <v>0.7236785542761662</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004573663981367435</v>
+        <v>1.081962962922901e-13</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08834379821650003</v>
+        <v>0.05902163674411161</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5055048690679764</v>
+        <v>0.7236785542761662</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1958,131 +1850,131 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_25.fasta</t>
+          <t>label_UMGS340_36.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1470875824884517</v>
+        <v>0.2017166778481444</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8379797606955787</v>
+        <v>0.2931588542495138</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001476064765062386</v>
+        <v>4.246948653396466e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01345659205090735</v>
+        <v>0.5051244679022994</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8379797606955787</v>
+        <v>0.5051244679022994</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp900554995</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_30.fasta</t>
+          <t>label_UMGS340_38.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1820844958033582</v>
+        <v>0.06762648863366329</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7117760531829452</v>
+        <v>0.2993765685213913</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02715048035687673</v>
+        <v>2.235179327881754e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07898897065681991</v>
+        <v>0.6329969428449231</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7117760531829452</v>
+        <v>0.6329969428449231</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp900554995</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_32.fasta</t>
+          <t>label_UMGS340_45.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2229624617548628</v>
+        <v>0.1962172364963017</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7098999909990013</v>
+        <v>0.3613845472082423</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01441917565584404</v>
+        <v>5.142526879323542e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05271837159029182</v>
+        <v>0.4423982162954047</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7098999909990013</v>
+        <v>0.4423982162954047</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp900554995</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_37.fasta</t>
+          <t>label_UMGS340_6.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09717476681699036</v>
+        <v>0.3671226702745908</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1371307005034721</v>
+        <v>0.6015983594976938</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003794658402139391</v>
+        <v>1.640462158015063e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7618998742773981</v>
+        <v>0.03127897022755139</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7618998742773981</v>
+        <v>0.6015983594976938</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp900554995</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_41.fasta</t>
+          <t>label_UMGS340_7.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1684625920888016</v>
+        <v>0.2871498573766229</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4289716507062967</v>
+        <v>0.7043034583237312</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3849629141990927</v>
+        <v>2.158334921204287e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0176028430058089</v>
+        <v>0.008546684299430039</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4289716507062967</v>
+        <v>0.7043034583237312</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2093,23 +1985,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_43.fasta</t>
+          <t>label_UMGS340_27.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.234265485197471</v>
+        <v>0.08818058144496185</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6923560114465668</v>
+        <v>0.9005077265726532</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01647772689053997</v>
+        <v>0.01061914724563951</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05690077646542214</v>
+        <v>0.0006925447367454334</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6923560114465668</v>
+        <v>0.9005077265726532</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2120,23 +2012,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_0.fasta</t>
+          <t>label_UMGS340_3.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3920734007463739</v>
+        <v>0.1633803146668927</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6039663887660969</v>
+        <v>0.8359884808581454</v>
       </c>
       <c r="D22" t="n">
-        <v>1.750147308352189e-13</v>
+        <v>0.000547423613158707</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003960210487354215</v>
+        <v>8.378086180320999e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6039663887660969</v>
+        <v>0.8359884808581454</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2147,23 +2039,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_19.fasta</t>
+          <t>label_UMGS340_34.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1883094799004938</v>
+        <v>0.1496353883552356</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7451490886181116</v>
+        <v>0.7916682105031991</v>
       </c>
       <c r="D23" t="n">
-        <v>8.607050023286437e-14</v>
+        <v>0.04439230799869324</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06654143148130849</v>
+        <v>0.01430409314287203</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7451490886181116</v>
+        <v>0.7916682105031991</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2174,23 +2066,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_20.fasta</t>
+          <t>label_UMGS340_39.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2876762287632524</v>
+        <v>0.1099110521193764</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6969231786118592</v>
+        <v>0.8203036870307808</v>
       </c>
       <c r="D24" t="n">
-        <v>1.220394374652255e-13</v>
+        <v>0.00244132561913151</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01540059262476647</v>
+        <v>0.06734393523071125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6969231786118592</v>
+        <v>0.8203036870307808</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2201,23 +2093,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_31.fasta</t>
+          <t>label_UMGS340_4.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.217299808979614</v>
+        <v>0.1932482066810419</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7236785542761662</v>
+        <v>0.8057868067625694</v>
       </c>
       <c r="D25" t="n">
-        <v>1.081962962922901e-13</v>
+        <v>0.0008718828578630408</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05902163674411161</v>
+        <v>9.310369852571925e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7236785542761662</v>
+        <v>0.8057868067625694</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2228,23 +2120,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_36.fasta</t>
+          <t>label_UMGS340_42.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2017166778481444</v>
+        <v>0.05502214291677584</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2931588542495138</v>
+        <v>0.429798759210188</v>
       </c>
       <c r="D26" t="n">
-        <v>4.246948653396466e-14</v>
+        <v>0.0006267674405391652</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5051244679022994</v>
+        <v>0.514552330432497</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5051244679022994</v>
+        <v>0.514552330432497</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2255,23 +2147,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_38.fasta</t>
+          <t>label_UMGS340_46.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.06762648863366329</v>
+        <v>0.1947235146558785</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2993765685213913</v>
+        <v>0.247721584265452</v>
       </c>
       <c r="D27" t="n">
-        <v>2.235179327881754e-14</v>
+        <v>0.003041400687406147</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6329969428449231</v>
+        <v>0.5545135003912635</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6329969428449231</v>
+        <v>0.5545135003912635</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2282,23 +2174,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_45.fasta</t>
+          <t>label_UMGS340_48.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1962172364963017</v>
+        <v>0.02264995760137522</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3613845472082423</v>
+        <v>0.0008755718266300717</v>
       </c>
       <c r="D28" t="n">
-        <v>5.142526879323542e-14</v>
+        <v>0.001016817394646244</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4423982162954047</v>
+        <v>0.9754576531773484</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4423982162954047</v>
+        <v>0.9754576531773484</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2309,50 +2201,50 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_6.fasta</t>
+          <t>label_UMGS340_49.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3671226702745908</v>
+        <v>0.09641077392215112</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6015983594976938</v>
+        <v>4.894693499100619e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>1.640462158015063e-13</v>
+        <v>0.0002987975194268083</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03127897022755139</v>
+        <v>0.903241481623431</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6015983594976938</v>
+        <v>0.903241481623431</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp900554995</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_7.fasta</t>
+          <t>label_UMGS340_9.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2871498573766229</v>
+        <v>0.1341205993632145</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7043034583237312</v>
+        <v>0.8651884007210896</v>
       </c>
       <c r="D30" t="n">
-        <v>2.158334921204287e-13</v>
+        <v>2.08659886898912e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008546684299430039</v>
+        <v>0.0006701339270060157</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7043034583237312</v>
+        <v>0.8651884007210896</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2363,23 +2255,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_27.fasta</t>
+          <t>label_UMGS340_1.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.08818058144496185</v>
+        <v>0.2986112605369902</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9005077265726532</v>
+        <v>0.7002330237672864</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01061914724563951</v>
+        <v>3.078878534997247e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0006925447367454334</v>
+        <v>0.00115571569541559</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9005077265726532</v>
+        <v>0.7002330237672864</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2390,23 +2282,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_3.fasta</t>
+          <t>label_UMGS340_14.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1633803146668927</v>
+        <v>0.2307688613273961</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8359884808581454</v>
+        <v>0.7575855461258748</v>
       </c>
       <c r="D32" t="n">
-        <v>0.000547423613158707</v>
+        <v>1.67369222281374e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>8.378086180320999e-05</v>
+        <v>0.01164559254656179</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8359884808581454</v>
+        <v>0.7575855461258748</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2417,23 +2309,23 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_34.fasta</t>
+          <t>label_UMGS340_15.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1496353883552356</v>
+        <v>0.1582173207767094</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7916682105031991</v>
+        <v>0.8352322322775668</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04439230799869324</v>
+        <v>8.751030000054079e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01430409314287203</v>
+        <v>0.006550446945636308</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7916682105031991</v>
+        <v>0.8352322322775668</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2444,23 +2336,23 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_39.fasta</t>
+          <t>label_UMGS340_18.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1099110521193764</v>
+        <v>0.2039877944664181</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8203036870307808</v>
+        <v>0.7738948559770772</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00244132561913151</v>
+        <v>1.318496513365126e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06734393523071125</v>
+        <v>0.02211734955637268</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8203036870307808</v>
+        <v>0.7738948559770772</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2471,23 +2363,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_4.fasta</t>
+          <t>label_UMGS340_21.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1932482066810419</v>
+        <v>0.1759523726503292</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8057868067625694</v>
+        <v>0.8213939298464095</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0008718828578630408</v>
+        <v>1.021841994941363e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>9.310369852571925e-05</v>
+        <v>0.002653697503159199</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8057868067625694</v>
+        <v>0.8213939298464095</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2498,212 +2390,212 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_42.fasta</t>
+          <t>label_UMGS340_26.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.05502214291677584</v>
+        <v>0.422391227123332</v>
       </c>
       <c r="C36" t="n">
-        <v>0.429798759210188</v>
+        <v>0.5307210212730851</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0006267674405391652</v>
+        <v>9.067914413449559e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.514552330432497</v>
+        <v>0.04688775160349227</v>
       </c>
       <c r="F36" t="n">
-        <v>0.514552330432497</v>
+        <v>0.5307210212730851</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp900554995</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_46.fasta</t>
+          <t>label_UMGS340_28.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1947235146558785</v>
+        <v>0.1616829869682793</v>
       </c>
       <c r="C37" t="n">
-        <v>0.247721584265452</v>
+        <v>0.6766450932614769</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003041400687406147</v>
+        <v>5.358016907609747e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5545135003912635</v>
+        <v>0.1616719197701904</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5545135003912635</v>
+        <v>0.6766450932614769</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp900554995</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_48.fasta</t>
+          <t>label_UMGS340_33.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.02264995760137522</v>
+        <v>0.1589823997682016</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0008755718266300717</v>
+        <v>0.7611143216396374</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001016817394646244</v>
+        <v>8.037164376787669e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9754576531773484</v>
+        <v>0.0799032785920806</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9754576531773484</v>
+        <v>0.7611143216396374</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp900554995</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_49.fasta</t>
+          <t>label_UMGS340_44.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.09641077392215112</v>
+        <v>0.1553850873910525</v>
       </c>
       <c r="C39" t="n">
-        <v>4.894693499100619e-05</v>
+        <v>0.4623487960409592</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0002987975194268083</v>
+        <v>5.99471308618191e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.903241481623431</v>
+        <v>0.3822661165679284</v>
       </c>
       <c r="F39" t="n">
-        <v>0.903241481623431</v>
+        <v>0.4623487960409592</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp900554995</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_9.fasta</t>
+          <t>label_UMGS340_47.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1341205993632145</v>
+        <v>0.04821700346256144</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8651884007210896</v>
+        <v>0.07979535477761475</v>
       </c>
       <c r="D40" t="n">
-        <v>2.08659886898912e-05</v>
+        <v>2.220355259312087e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0006701339270060157</v>
+        <v>0.8719876417598016</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8651884007210896</v>
+        <v>0.8719876417598016</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp900554995</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_1.fasta</t>
+          <t>label_UMGS340_5.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2986112605369902</v>
+        <v>0.5311644016274498</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7002330237672864</v>
+        <v>0.4671057720238816</v>
       </c>
       <c r="D41" t="n">
-        <v>3.078878534997247e-13</v>
+        <v>1.030413785219363e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00115571569541559</v>
+        <v>0.001729826348565533</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7002330237672864</v>
+        <v>0.5311644016274498</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_14.fasta</t>
+          <t>label_UMGS340_50.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2307688613273961</v>
+        <v>0.06871894170433308</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7575855461258748</v>
+        <v>0.0002840400035469745</v>
       </c>
       <c r="D42" t="n">
-        <v>1.67369222281374e-13</v>
+        <v>2.219280719781967e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01164559254656179</v>
+        <v>0.9309970182920978</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7575855461258748</v>
+        <v>0.9309970182920978</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp900554995</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_15.fasta</t>
+          <t>label_UMGS340_10.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1582173207767094</v>
+        <v>0.3068545614854149</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8352322322775668</v>
+        <v>0.6875119311510977</v>
       </c>
       <c r="D43" t="n">
-        <v>8.751030000054079e-14</v>
+        <v>0.00126614251692633</v>
       </c>
       <c r="E43" t="n">
-        <v>0.006550446945636308</v>
+        <v>0.004367364846561121</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8352322322775668</v>
+        <v>0.6875119311510977</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2714,23 +2606,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_18.fasta</t>
+          <t>label_UMGS340_11.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2039877944664181</v>
+        <v>0.2915599191832204</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7738948559770772</v>
+        <v>0.7033396926801102</v>
       </c>
       <c r="D44" t="n">
-        <v>1.318496513365126e-13</v>
+        <v>0.0002951223883526261</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02211734955637268</v>
+        <v>0.004805265748316745</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7738948559770772</v>
+        <v>0.7033396926801102</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2741,23 +2633,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_21.fasta</t>
+          <t>label_UMGS340_13.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1759523726503292</v>
+        <v>0.2881435984397498</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8213939298464095</v>
+        <v>0.7029740243497674</v>
       </c>
       <c r="D45" t="n">
-        <v>1.021841994941363e-13</v>
+        <v>0.00472752848769555</v>
       </c>
       <c r="E45" t="n">
-        <v>0.002653697503159199</v>
+        <v>0.004154848722787334</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8213939298464095</v>
+        <v>0.7029740243497674</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2768,23 +2660,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_26.fasta</t>
+          <t>label_UMGS340_17.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.422391227123332</v>
+        <v>0.1233746212651285</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5307210212730851</v>
+        <v>0.8666337765880572</v>
       </c>
       <c r="D46" t="n">
-        <v>9.067914413449559e-14</v>
+        <v>0.0001904842924665538</v>
       </c>
       <c r="E46" t="n">
-        <v>0.04688775160349227</v>
+        <v>0.009801117854347655</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5307210212730851</v>
+        <v>0.8666337765880572</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2795,23 +2687,23 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_28.fasta</t>
+          <t>label_UMGS340_2.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1616829869682793</v>
+        <v>0.2305464047128937</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6766450932614769</v>
+        <v>0.7669159835899267</v>
       </c>
       <c r="D47" t="n">
-        <v>5.358016907609747e-14</v>
+        <v>0.0001501561651167745</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1616719197701904</v>
+        <v>0.002387455532062874</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6766450932614769</v>
+        <v>0.7669159835899267</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2822,23 +2714,23 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_33.fasta</t>
+          <t>label_UMGS340_24.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1589823997682016</v>
+        <v>0.3451420332405772</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7611143216396374</v>
+        <v>0.6210243598056978</v>
       </c>
       <c r="D48" t="n">
-        <v>8.037164376787669e-14</v>
+        <v>0.0006421314689898309</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0799032785920806</v>
+        <v>0.03319147548473499</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7611143216396374</v>
+        <v>0.6210243598056978</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2849,23 +2741,23 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_44.fasta</t>
+          <t>label_UMGS340_29.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1553850873910525</v>
+        <v>0.2094331983711934</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4623487960409592</v>
+        <v>0.6935290585247087</v>
       </c>
       <c r="D49" t="n">
-        <v>5.99471308618191e-14</v>
+        <v>0.002954858696047345</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3822661165679284</v>
+        <v>0.09408288440805065</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4623487960409592</v>
+        <v>0.6935290585247087</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2876,349 +2768,79 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_47.fasta</t>
+          <t>label_UMGS340_35.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.04821700346256144</v>
+        <v>0.1895282129606366</v>
       </c>
       <c r="C50" t="n">
-        <v>0.07979535477761475</v>
+        <v>0.6425920703086974</v>
       </c>
       <c r="D50" t="n">
-        <v>2.220355259312087e-14</v>
+        <v>0.008274835807021895</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8719876417598016</v>
+        <v>0.1596048809236441</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8719876417598016</v>
+        <v>0.6425920703086974</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp900554995</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_5.fasta</t>
+          <t>label_UMGS340_40.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5311644016274498</v>
+        <v>0.1427282680405679</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4671057720238816</v>
+        <v>0.5280554104798958</v>
       </c>
       <c r="D51" t="n">
-        <v>1.030413785219363e-13</v>
+        <v>0.000551597893091582</v>
       </c>
       <c r="E51" t="n">
-        <v>0.001729826348565533</v>
+        <v>0.3286647235864448</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5311644016274498</v>
+        <v>0.5280554104798958</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS340_50.fasta</t>
+          <t>label_UMGS340_8.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.06871894170433308</v>
+        <v>0.2677593716163048</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0002840400035469745</v>
+        <v>0.7291995291138088</v>
       </c>
       <c r="D52" t="n">
-        <v>2.219280719781967e-14</v>
+        <v>6.073600074120366e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9309970182920978</v>
+        <v>0.002980363269145298</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9309970182920978</v>
+        <v>0.7291995291138088</v>
       </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS340_10.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.3068545614854149</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.6875119311510977</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.00126614251692633</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.004367364846561121</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.6875119311510977</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS340_11.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.2915599191832204</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.7033396926801102</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.0002951223883526261</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.004805265748316745</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.7033396926801102</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS340_13.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.2881435984397498</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.7029740243497674</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.00472752848769555</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.004154848722787334</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.7029740243497674</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS340_17.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.1233746212651285</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.8666337765880572</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.0001904842924665538</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.009801117854347655</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.8666337765880572</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS340_2.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.2305464047128937</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.7669159835899267</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.0001501561651167745</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.002387455532062874</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.7669159835899267</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS340_24.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.3451420332405772</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.6210243598056978</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.0006421314689898309</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.03319147548473499</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.6210243598056978</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS340_29.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.2094331983711934</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.6935290585247087</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.002954858696047345</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.09408288440805065</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.6935290585247087</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS340_35.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.1895282129606366</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.6425920703086974</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.008274835807021895</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.1596048809236441</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.6425920703086974</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS340_40.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.1427282680405679</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5280554104798958</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.000551597893091582</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.3286647235864448</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.5280554104798958</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS340_8.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.2677593716163048</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.7291995291138088</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6.073600074120366e-05</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.002980363269145298</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.7291995291138088</v>
-      </c>
-      <c r="G62" t="inlineStr">
         <is>
           <t>s__CAG-488 sp000434915</t>
         </is>
@@ -3235,7 +2857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3391,23 +3013,23 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_15.fasta</t>
+          <t>label_UMGS136_0.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03899386773183518</v>
+        <v>0.0302775518858128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01530031262688011</v>
+        <v>0.01350802753133897</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9450461999218553</v>
+        <v>0.9561315395135297</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0006596197194293447</v>
+        <v>8.288106931853704e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9450461999218553</v>
+        <v>0.9561315395135297</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3418,23 +3040,23 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_17.fasta</t>
+          <t>label_UMGS136_11.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0331224014087434</v>
+        <v>0.04431549712829076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03980376895887017</v>
+        <v>0.008494693365447458</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9265645525492483</v>
+        <v>0.9465406228823013</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0005092770831380443</v>
+        <v>0.0006491866239603584</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9265645525492483</v>
+        <v>0.9465406228823013</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3445,23 +3067,23 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_22.fasta</t>
+          <t>label_UMGS136_2.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06960222971794047</v>
+        <v>0.04978823162143527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102348941889173</v>
+        <v>0.003648731866584608</v>
       </c>
       <c r="D8" t="n">
-        <v>0.648192888070669</v>
+        <v>0.9460623655184101</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1798559403222176</v>
+        <v>0.0005006709935699584</v>
       </c>
       <c r="F8" t="n">
-        <v>0.648192888070669</v>
+        <v>0.9460623655184101</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3472,50 +3094,50 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_7.fasta</t>
+          <t>label_UMGS136_20.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02925583292206671</v>
+        <v>0.1725697698799328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008073013440759199</v>
+        <v>0.4097973818907359</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9625316890633383</v>
+        <v>0.2240577826729714</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001394645738358992</v>
+        <v>0.1935750655563599</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9625316890633383</v>
+        <v>0.4097973818907359</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp900539465</t>
+          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_0.fasta</t>
+          <t>label_UMGS136_4.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0302775518858128</v>
+        <v>0.04448103381998871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01350802753133897</v>
+        <v>0.007040384449410361</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9561315395135297</v>
+        <v>0.9482296674179072</v>
       </c>
       <c r="E10" t="n">
-        <v>8.288106931853704e-05</v>
+        <v>0.0002489143126937737</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9561315395135297</v>
+        <v>0.9482296674179072</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3526,23 +3148,23 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_11.fasta</t>
+          <t>label_UMGS136_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04431549712829076</v>
+        <v>0.0311976060976337</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008494693365447458</v>
+        <v>0.01483350442875058</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9465406228823013</v>
+        <v>0.9539445830706311</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0006491866239603584</v>
+        <v>2.430640298459713e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9465406228823013</v>
+        <v>0.9539445830706311</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3553,23 +3175,23 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_2.fasta</t>
+          <t>label_UMGS136_14.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04978823162143527</v>
+        <v>0.04655378115818168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003648731866584608</v>
+        <v>0.003780871363887973</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9460623655184101</v>
+        <v>0.9496317776414588</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0005006709935699584</v>
+        <v>3.356983647154559e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9460623655184101</v>
+        <v>0.9496317776414588</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3580,50 +3202,50 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_20.fasta</t>
+          <t>label_UMGS136_16.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1725697698799328</v>
+        <v>0.02463209260034623</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4097973818907359</v>
+        <v>0.0679363203635004</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2240577826729714</v>
+        <v>0.9072498743799785</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1935750655563599</v>
+        <v>0.0001817126561749967</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4097973818907359</v>
+        <v>0.9072498743799785</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434915</t>
+          <t>s__CAG-488 sp900539465</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_4.fasta</t>
+          <t>label_UMGS136_18.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04448103381998871</v>
+        <v>0.02736141198871906</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007040384449410361</v>
+        <v>0.04816157346327551</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9482296674179072</v>
+        <v>0.9240680131133674</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0002489143126937737</v>
+        <v>0.0004090014346381368</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9482296674179072</v>
+        <v>0.9240680131133674</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3634,23 +3256,23 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_13.fasta</t>
+          <t>label_UMGS136_19.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0311976060976337</v>
+        <v>0.03630159487730428</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01483350442875058</v>
+        <v>0.01163464412823612</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9539445830706311</v>
+        <v>0.9515369527283203</v>
       </c>
       <c r="E15" t="n">
-        <v>2.430640298459713e-05</v>
+        <v>0.0005268082661392756</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9539445830706311</v>
+        <v>0.9515369527283203</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3661,23 +3283,23 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_14.fasta</t>
+          <t>label_UMGS136_3.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04655378115818168</v>
+        <v>0.0355897888106854</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003780871363887973</v>
+        <v>0.002600199265529988</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9496317776414588</v>
+        <v>0.9617919711688846</v>
       </c>
       <c r="E16" t="n">
-        <v>3.356983647154559e-05</v>
+        <v>1.804075489990766e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9496317776414588</v>
+        <v>0.9617919711688846</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3688,23 +3310,23 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_16.fasta</t>
+          <t>label_UMGS136_1.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02463209260034623</v>
+        <v>0.0291318161050383</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0679363203635004</v>
+        <v>0.008498883948972124</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9072498743799785</v>
+        <v>0.9623480154774057</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001817126561749967</v>
+        <v>2.128446858397812e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9072498743799785</v>
+        <v>0.9623480154774057</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3715,23 +3337,23 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_18.fasta</t>
+          <t>label_UMGS136_12.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02736141198871906</v>
+        <v>0.03347271422613389</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04816157346327551</v>
+        <v>0.007423857992781459</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9240680131133674</v>
+        <v>0.9586956989207158</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0004090014346381368</v>
+        <v>0.0004077288603686829</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9240680131133674</v>
+        <v>0.9586956989207158</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3742,23 +3364,23 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_19.fasta</t>
+          <t>label_UMGS136_23.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03630159487730428</v>
+        <v>0.01570050454572404</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01163464412823612</v>
+        <v>0.03292889325254141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9515369527283203</v>
+        <v>0.6183364101302251</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0005268082661392756</v>
+        <v>0.3330341920715095</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9515369527283203</v>
+        <v>0.6183364101302251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3769,23 +3391,23 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_3.fasta</t>
+          <t>label_UMGS136_5.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0355897888106854</v>
+        <v>0.01774547280104223</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002600199265529988</v>
+        <v>0.01328957068862259</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9617919711688846</v>
+        <v>0.9688748691045134</v>
       </c>
       <c r="E20" t="n">
-        <v>1.804075489990766e-05</v>
+        <v>9.008740582187019e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9617919711688846</v>
+        <v>0.9688748691045134</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3796,23 +3418,23 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_1.fasta</t>
+          <t>label_UMGS136_8.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0291318161050383</v>
+        <v>0.03784497012878331</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008498883948972124</v>
+        <v>0.0261904417842856</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9623480154774057</v>
+        <v>0.9359307746503358</v>
       </c>
       <c r="E21" t="n">
-        <v>2.128446858397812e-05</v>
+        <v>3.381343659525031e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9623480154774057</v>
+        <v>0.9359307746503358</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3823,23 +3445,23 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_12.fasta</t>
+          <t>label_UMGS136_10.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03347271422613389</v>
+        <v>0.02869835864186743</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007423857992781459</v>
+        <v>0.01115551825488259</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9586956989207158</v>
+        <v>0.9600403271581128</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0004077288603686829</v>
+        <v>0.0001057959451371379</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9586956989207158</v>
+        <v>0.9600403271581128</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3850,23 +3472,23 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_23.fasta</t>
+          <t>label_UMGS136_21.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01570050454572404</v>
+        <v>0.01752991183838513</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03292889325254141</v>
+        <v>0.03590396169721411</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6183364101302251</v>
+        <v>0.9457804880813683</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3330341920715095</v>
+        <v>0.0007856383830324842</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6183364101302251</v>
+        <v>0.9457804880813683</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3877,23 +3499,23 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_5.fasta</t>
+          <t>label_UMGS136_6.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01774547280104223</v>
+        <v>0.05783664389371073</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01328957068862259</v>
+        <v>0.007493168678147383</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9688748691045134</v>
+        <v>0.9346574373087362</v>
       </c>
       <c r="E24" t="n">
-        <v>9.008740582187019e-05</v>
+        <v>1.275011940552634e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9688748691045134</v>
+        <v>0.9346574373087362</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3904,133 +3526,25 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS136_8.fasta</t>
+          <t>label_UMGS136_9.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03784497012878331</v>
+        <v>0.02709807710432736</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0261904417842856</v>
+        <v>0.03604962107513611</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9359307746503358</v>
+        <v>0.9368398399270529</v>
       </c>
       <c r="E25" t="n">
-        <v>3.381343659525031e-05</v>
+        <v>1.246189348361088e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9359307746503358</v>
+        <v>0.9368398399270529</v>
       </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900539465</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS136_10.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.02869835864186743</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.01115551825488259</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9600403271581128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0001057959451371379</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9600403271581128</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900539465</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS136_21.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.01752991183838513</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.03590396169721411</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.9457804880813683</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0007856383830324842</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9457804880813683</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900539465</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS136_6.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.05783664389371073</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.007493168678147383</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.9346574373087362</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1.275011940552634e-05</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.9346574373087362</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900539465</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS136_9.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.02709807710432736</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.03604962107513611</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9368398399270529</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.246189348361088e-05</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9368398399270529</v>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>s__CAG-488 sp900539465</t>
         </is>
@@ -4047,7 +3561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4716,23 +4230,23 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_104.fasta</t>
+          <t>label_UMGS1778_101.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.008075409811979489</v>
+        <v>0.008370859001522329</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0008574301064402842</v>
+        <v>0.006262922467720484</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001317447204398117</v>
+        <v>2.220535318428911e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9897497128771822</v>
+        <v>0.985366218530735</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9897497128771822</v>
+        <v>0.985366218530735</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4743,23 +4257,23 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_112.fasta</t>
+          <t>label_UMGS1778_102.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.008614369342932195</v>
+        <v>0.01162389328192911</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01572595096617337</v>
+        <v>0.02600786437954184</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002473603889462252</v>
+        <v>2.22093197479503e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9754123193019483</v>
+        <v>0.9623682423385069</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9754123193019483</v>
+        <v>0.9623682423385069</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4770,23 +4284,23 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_113.fasta</t>
+          <t>label_UMGS1778_105.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01754502820635392</v>
+        <v>0.0534632116198647</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002512359968536167</v>
+        <v>0.02158100417890303</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0002579611826462373</v>
+        <v>2.224512183615436e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9819457746141462</v>
+        <v>0.9249557842012099</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9819457746141462</v>
+        <v>0.9249557842012099</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4797,23 +4311,23 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_115.fasta</t>
+          <t>label_UMGS1778_11.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02157105764514621</v>
+        <v>0.04172399336741509</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006689563433818645</v>
+        <v>0.1123587626376921</v>
       </c>
       <c r="D28" t="n">
-        <v>9.225111041743207e-05</v>
+        <v>2.235241555581127e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9716471278106178</v>
+        <v>0.8459172439948704</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9716471278106178</v>
+        <v>0.8459172439948704</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4824,23 +4338,23 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_12.fasta</t>
+          <t>label_UMGS1778_111.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0790124079434045</v>
+        <v>0.007791868684814261</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09887053221613676</v>
+        <v>0.002167699076407266</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003931361363145795</v>
+        <v>2.220097508357152e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8217239237041442</v>
+        <v>0.9900404322387563</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8217239237041442</v>
+        <v>0.9900404322387563</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4851,23 +4365,23 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_120.fasta</t>
+          <t>label_UMGS1778_114.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02253703681932999</v>
+        <v>0.07703850850167471</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001016846560033902</v>
+        <v>0.002530344062166155</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0009329468872816126</v>
+        <v>2.217567689347553e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9755131697333546</v>
+        <v>0.920431147436137</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9755131697333546</v>
+        <v>0.920431147436137</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4878,23 +4392,23 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_15.fasta</t>
+          <t>label_UMGS1778_117.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04663384192708246</v>
+        <v>0.1615316230917019</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1004953078981077</v>
+        <v>0.0001881976915012846</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0004616966967228809</v>
+        <v>2.217589495569358e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.852409153478087</v>
+        <v>0.8382801792167746</v>
       </c>
       <c r="F31" t="n">
-        <v>0.852409153478087</v>
+        <v>0.8382801792167746</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4905,23 +4419,23 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_18.fasta</t>
+          <t>label_UMGS1778_121.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.07607352830886217</v>
+        <v>0.04088836210223215</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1158016193899238</v>
+        <v>0.006815463780804071</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002095732221279994</v>
+        <v>2.219836530826902e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.806029120079934</v>
+        <v>0.9522961741169416</v>
       </c>
       <c r="F32" t="n">
-        <v>0.806029120079934</v>
+        <v>0.9522961741169416</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4932,23 +4446,23 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_20.fasta</t>
+          <t>label_UMGS1778_16.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.09552548257639509</v>
+        <v>0.05222752967795147</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1706900383210518</v>
+        <v>0.06255355267787852</v>
       </c>
       <c r="D33" t="n">
-        <v>0.004542166271770886</v>
+        <v>2.233302965358094e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7292423128307821</v>
+        <v>0.8852189176441476</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7292423128307821</v>
+        <v>0.8852189176441476</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4959,23 +4473,23 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_22.fasta</t>
+          <t>label_UMGS1778_17.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04038996350430661</v>
+        <v>0.03867227921726082</v>
       </c>
       <c r="C34" t="n">
-        <v>0.05311259490190719</v>
+        <v>0.131455113059398</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00110385817973346</v>
+        <v>2.234595268974022e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9053935834140527</v>
+        <v>0.8298726077233188</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9053935834140527</v>
+        <v>0.8298726077233188</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4986,23 +4500,23 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_27.fasta</t>
+          <t>label_UMGS1778_23.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01227839955215355</v>
+        <v>0.05612999596006233</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06956584124084617</v>
+        <v>0.1744223525137252</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0004853128715630024</v>
+        <v>2.222644674172499e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9176704463354373</v>
+        <v>0.7694476515261902</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9176704463354373</v>
+        <v>0.7694476515261902</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -5013,23 +4527,23 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_30.fasta</t>
+          <t>label_UMGS1778_26.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0488244640695766</v>
+        <v>0.02361026300403439</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08239650039856376</v>
+        <v>0.06177154194332494</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001252125567569685</v>
+        <v>2.225092051482577e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8675269099642899</v>
+        <v>0.9146181950526184</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8675269099642899</v>
+        <v>0.9146181950526184</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -5040,23 +4554,23 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_35.fasta</t>
+          <t>label_UMGS1778_29.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02254430309508035</v>
+        <v>0.03595553543421115</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04855152263494864</v>
+        <v>0.1206973390532807</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0003105037515497527</v>
+        <v>2.230132630851339e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9285936705184212</v>
+        <v>0.8433471255124858</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9285936705184212</v>
+        <v>0.8433471255124858</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -5067,23 +4581,23 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_37.fasta</t>
+          <t>label_UMGS1778_3.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.03990851749729688</v>
+        <v>0.06035726942502452</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01821502857680659</v>
+        <v>0.1597727318312943</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0006212108994671891</v>
+        <v>2.234133069689181e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9412552430264294</v>
+        <v>0.7798699987436588</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9412552430264294</v>
+        <v>0.7798699987436588</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -5094,23 +4608,23 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_39.fasta</t>
+          <t>label_UMGS1778_4.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0816359067224925</v>
+        <v>0.1721955992398434</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1399302558107892</v>
+        <v>0.1145432321589545</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0008246174049992374</v>
+        <v>2.231418216063381e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7776092200617191</v>
+        <v>0.7132611686011798</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7776092200617191</v>
+        <v>0.7132611686011798</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -5121,23 +4635,23 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_49.fasta</t>
+          <t>label_UMGS1778_41.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.00821071790503939</v>
+        <v>0.03428002557805169</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0299990765506537</v>
+        <v>0.07065374754357164</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0006753064852462981</v>
+        <v>2.229031657268266e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9611148990590606</v>
+        <v>0.8950662268783544</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9611148990590606</v>
+        <v>0.8950662268783544</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -5148,23 +4662,23 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_50.fasta</t>
+          <t>label_UMGS1778_44.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0170619904568466</v>
+        <v>0.0225270910106047</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03011983555753522</v>
+        <v>0.06324378619972534</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00030347734447086</v>
+        <v>2.225703615704205e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9525146966411473</v>
+        <v>0.9142291227896477</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9525146966411473</v>
+        <v>0.9142291227896477</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -5175,23 +4689,23 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_51.fasta</t>
+          <t>label_UMGS1778_48.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02863919019809575</v>
+        <v>0.03672348589131174</v>
       </c>
       <c r="C42" t="n">
-        <v>0.007079505328003883</v>
+        <v>0.0510847988674995</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001131205391454518</v>
+        <v>2.226967706773458e-14</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9631500990824459</v>
+        <v>0.9121917152411665</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9631500990824459</v>
+        <v>0.9121917152411665</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -5202,23 +4716,23 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_53.fasta</t>
+          <t>label_UMGS1778_59.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01090000538187095</v>
+        <v>0.01526224209904961</v>
       </c>
       <c r="C43" t="n">
-        <v>0.005839051850763274</v>
+        <v>0.04138631380587572</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0006148801239243567</v>
+        <v>2.22258753448871e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9826460626434415</v>
+        <v>0.9433514440950523</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9826460626434415</v>
+        <v>0.9433514440950523</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -5229,23 +4743,23 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_56.fasta</t>
+          <t>label_UMGS1778_6.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02297528105133714</v>
+        <v>0.1388783808687822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.00187120852582651</v>
+        <v>0.2939080708347152</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007998317894598397</v>
+        <v>2.877259341534704e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.967155192528238</v>
+        <v>0.5672135482964739</v>
       </c>
       <c r="F44" t="n">
-        <v>0.967155192528238</v>
+        <v>0.5672135482964739</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -5256,23 +4770,23 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_62.fasta</t>
+          <t>label_UMGS1778_63.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02078369761501715</v>
+        <v>0.01615744615188889</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03311796800007757</v>
+        <v>0.0257326057792417</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0001761227535489924</v>
+        <v>2.22188577168966e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9459222116313563</v>
+        <v>0.9581099480688472</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9459222116313563</v>
+        <v>0.9581099480688472</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -5283,23 +4797,23 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_79.fasta</t>
+          <t>label_UMGS1778_69.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.003143822416326538</v>
+        <v>0.02355306845564538</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01004184222469313</v>
+        <v>0.02244855148517468</v>
       </c>
       <c r="D46" t="n">
-        <v>6.744924709603433e-05</v>
+        <v>2.222764382635221e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9867468861118843</v>
+        <v>0.9539983800591577</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9867468861118843</v>
+        <v>0.9539983800591577</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5310,23 +4824,23 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_8.fasta</t>
+          <t>label_UMGS1778_74.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.05420883140524119</v>
+        <v>0.006708860390530103</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08536732050516897</v>
+        <v>0.03452477483807098</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001031572360578544</v>
+        <v>2.220074949565956e-14</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8593922757290113</v>
+        <v>0.9587663647713767</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8593922757290113</v>
+        <v>0.9587663647713767</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5337,23 +4851,23 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_85.fasta</t>
+          <t>label_UMGS1778_75.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01647653761213039</v>
+        <v>0.01039663587735875</v>
       </c>
       <c r="C48" t="n">
-        <v>0.004726466625988563</v>
+        <v>0.02138336385830832</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0001325864226601681</v>
+        <v>2.22092704919457e-14</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9786644093392208</v>
+        <v>0.9682200002643108</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9786644093392208</v>
+        <v>0.9682200002643108</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5364,23 +4878,23 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_89.fasta</t>
+          <t>label_UMGS1778_80.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.06211896721577615</v>
+        <v>0.08848585305932756</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0007811523889426747</v>
+        <v>0.0671170977338838</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0006968947324871203</v>
+        <v>2.227528775801372e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.936402985662794</v>
+        <v>0.8443970492067664</v>
       </c>
       <c r="F49" t="n">
-        <v>0.936402985662794</v>
+        <v>0.8443970492067664</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5391,23 +4905,23 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_9.fasta</t>
+          <t>label_UMGS1778_90.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0265759048844536</v>
+        <v>0.002079143191711966</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09106331794361373</v>
+        <v>0.007848823247286611</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0009601747309941332</v>
+        <v>2.22006058859092e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8814006024409384</v>
+        <v>0.9900720335609792</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8814006024409384</v>
+        <v>0.9900720335609792</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5418,23 +4932,23 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_92.fasta</t>
+          <t>label_UMGS1778_91.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.04569361533904467</v>
+        <v>0.01228265214989412</v>
       </c>
       <c r="C51" t="n">
-        <v>0.004398048558891414</v>
+        <v>0.009717328212411664</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0002338171314867023</v>
+        <v>2.220720799782597e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9496745189705772</v>
+        <v>0.978000019637672</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9496745189705772</v>
+        <v>0.978000019637672</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5445,23 +4959,23 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_101.fasta</t>
+          <t>label_UMGS1778_99.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.008370859001522329</v>
+        <v>0.03502935860360252</v>
       </c>
       <c r="C52" t="n">
-        <v>0.006262922467720484</v>
+        <v>6.419716310416526e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>2.220535318428911e-14</v>
+        <v>2.21927129964727e-14</v>
       </c>
       <c r="E52" t="n">
-        <v>0.985366218530735</v>
+        <v>0.964906444233271</v>
       </c>
       <c r="F52" t="n">
-        <v>0.985366218530735</v>
+        <v>0.964906444233271</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5472,23 +4986,23 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_102.fasta</t>
+          <t>label_UMGS1778_0.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01162389328192911</v>
+        <v>0.3908939164376506</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02600786437954184</v>
+        <v>0.1619941471267465</v>
       </c>
       <c r="D53" t="n">
-        <v>2.22093197479503e-14</v>
+        <v>0.001351171281354956</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9623682423385069</v>
+        <v>0.445760765154248</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9623682423385069</v>
+        <v>0.445760765154248</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5499,23 +5013,23 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_105.fasta</t>
+          <t>label_UMGS1778_110.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0534632116198647</v>
+        <v>0.01887322466533954</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02158100417890303</v>
+        <v>4.146585291944591e-07</v>
       </c>
       <c r="D54" t="n">
-        <v>2.224512183615436e-14</v>
+        <v>0.0003726933114411073</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9249557842012099</v>
+        <v>0.9807536673646902</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9249557842012099</v>
+        <v>0.9807536673646902</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5526,23 +5040,23 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_11.fasta</t>
+          <t>label_UMGS1778_116.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.04172399336741509</v>
+        <v>0.03225490844722053</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1123587626376921</v>
+        <v>2.70762219045536e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>2.235241555581127e-14</v>
+        <v>2.74857920115792e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8459172439948704</v>
+        <v>0.9676905295388634</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8459172439948704</v>
+        <v>0.9676905295388634</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5553,23 +5067,23 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_111.fasta</t>
+          <t>label_UMGS1778_119.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.007791868684814261</v>
+        <v>0.02809863596501787</v>
       </c>
       <c r="C56" t="n">
-        <v>0.002167699076407266</v>
+        <v>3.730524842498606e-07</v>
       </c>
       <c r="D56" t="n">
-        <v>2.220097508357152e-14</v>
+        <v>0.0005538856259786776</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9900404322387563</v>
+        <v>0.9713471053565191</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9900404322387563</v>
+        <v>0.9713471053565191</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5580,23 +5094,23 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_114.fasta</t>
+          <t>label_UMGS1778_14.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.07703850850167471</v>
+        <v>0.1066785108374843</v>
       </c>
       <c r="C57" t="n">
-        <v>0.002530344062166155</v>
+        <v>0.1212652009516955</v>
       </c>
       <c r="D57" t="n">
-        <v>2.217567689347553e-14</v>
+        <v>0.005801395016894316</v>
       </c>
       <c r="E57" t="n">
-        <v>0.920431147436137</v>
+        <v>0.7662548931939257</v>
       </c>
       <c r="F57" t="n">
-        <v>0.920431147436137</v>
+        <v>0.7662548931939257</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5607,23 +5121,23 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_117.fasta</t>
+          <t>label_UMGS1778_21.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1615316230917019</v>
+        <v>0.1019620374511763</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0001881976915012846</v>
+        <v>0.1201548881550543</v>
       </c>
       <c r="D58" t="n">
-        <v>2.217589495569358e-14</v>
+        <v>0.005557332620529001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8382801792167746</v>
+        <v>0.7723257417732403</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8382801792167746</v>
+        <v>0.7723257417732403</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5634,23 +5148,23 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_121.fasta</t>
+          <t>label_UMGS1778_28.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.04088836210223215</v>
+        <v>0.02293088562792692</v>
       </c>
       <c r="C59" t="n">
-        <v>0.006815463780804071</v>
+        <v>0.004824747429525391</v>
       </c>
       <c r="D59" t="n">
-        <v>2.219836530826902e-14</v>
+        <v>0.0009465590542620252</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9522961741169416</v>
+        <v>0.9712978078882857</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9522961741169416</v>
+        <v>0.9712978078882857</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5661,23 +5175,23 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_16.fasta</t>
+          <t>label_UMGS1778_33.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.05222752967795147</v>
+        <v>0.04575806623051024</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06255355267787852</v>
+        <v>0.04614011589898423</v>
       </c>
       <c r="D60" t="n">
-        <v>2.233302965358094e-14</v>
+        <v>0.003286473299077604</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8852189176441476</v>
+        <v>0.9048153445714279</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8852189176441476</v>
+        <v>0.9048153445714279</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5688,23 +5202,23 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_17.fasta</t>
+          <t>label_UMGS1778_36.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.03867227921726082</v>
+        <v>0.0378249453093149</v>
       </c>
       <c r="C61" t="n">
-        <v>0.131455113059398</v>
+        <v>0.0295037249805561</v>
       </c>
       <c r="D61" t="n">
-        <v>2.234595268974022e-14</v>
+        <v>0.001179444030698565</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8298726077233188</v>
+        <v>0.9314918856794304</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8298726077233188</v>
+        <v>0.9314918856794304</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -5715,23 +5229,23 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_23.fasta</t>
+          <t>label_UMGS1778_40.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.05612999596006233</v>
+        <v>0.01763659977381032</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1744223525137252</v>
+        <v>0.001640914100437692</v>
       </c>
       <c r="D62" t="n">
-        <v>2.222644674172499e-14</v>
+        <v>0.001818212764833776</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7694476515261902</v>
+        <v>0.9789042733609182</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7694476515261902</v>
+        <v>0.9789042733609182</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -5742,23 +5256,23 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_26.fasta</t>
+          <t>label_UMGS1778_46.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.02361026300403439</v>
+        <v>0.03421264538893699</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06177154194332494</v>
+        <v>0.001298971830218457</v>
       </c>
       <c r="D63" t="n">
-        <v>2.225092051482577e-14</v>
+        <v>0.001152679241248144</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9146181950526184</v>
+        <v>0.9633357035395964</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9146181950526184</v>
+        <v>0.9633357035395964</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -5769,23 +5283,23 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_29.fasta</t>
+          <t>label_UMGS1778_5.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.03595553543421115</v>
+        <v>0.1369010838981991</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1206973390532807</v>
+        <v>0.4305885629457038</v>
       </c>
       <c r="D64" t="n">
-        <v>2.230132630851339e-14</v>
+        <v>0.0004779964836439715</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8433471255124858</v>
+        <v>0.432032356672453</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8433471255124858</v>
+        <v>0.432032356672453</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -5796,23 +5310,23 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_3.fasta</t>
+          <t>label_UMGS1778_54.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.06035726942502452</v>
+        <v>0.05626642283605639</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1597727318312943</v>
+        <v>0.008819576000318293</v>
       </c>
       <c r="D65" t="n">
-        <v>2.234133069689181e-14</v>
+        <v>0.002216188835143132</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7798699987436588</v>
+        <v>0.9326978123284821</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7798699987436588</v>
+        <v>0.9326978123284821</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -5823,23 +5337,23 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_4.fasta</t>
+          <t>label_UMGS1778_66.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1721955992398434</v>
+        <v>0.03692365151467236</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1145432321589545</v>
+        <v>0.006949361242757522</v>
       </c>
       <c r="D66" t="n">
-        <v>2.231418216063381e-14</v>
+        <v>0.0005670042540077192</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7132611686011798</v>
+        <v>0.9555599829885624</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7132611686011798</v>
+        <v>0.9555599829885624</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -5850,23 +5364,23 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_41.fasta</t>
+          <t>label_UMGS1778_71.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.03428002557805169</v>
+        <v>0.01914236849451775</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07065374754357164</v>
+        <v>0.0007558585033432076</v>
       </c>
       <c r="D67" t="n">
-        <v>2.229031657268266e-14</v>
+        <v>0.0006605409989058928</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8950662268783544</v>
+        <v>0.9794412320032332</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8950662268783544</v>
+        <v>0.9794412320032332</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -5877,23 +5391,23 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_44.fasta</t>
+          <t>label_UMGS1778_72.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0225270910106047</v>
+        <v>0.02040215496771323</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06324378619972534</v>
+        <v>0.002317714715944826</v>
       </c>
       <c r="D68" t="n">
-        <v>2.225703615704205e-14</v>
+        <v>0.000320637031527812</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9142291227896477</v>
+        <v>0.9769594932848141</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9142291227896477</v>
+        <v>0.9769594932848141</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -5904,23 +5418,23 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_48.fasta</t>
+          <t>label_UMGS1778_77.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.03672348589131174</v>
+        <v>0.02814583908555992</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0510847988674995</v>
+        <v>0.0007157448670276335</v>
       </c>
       <c r="D69" t="n">
-        <v>2.226967706773458e-14</v>
+        <v>0.0008491129520428305</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9121917152411665</v>
+        <v>0.9702893030953696</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9121917152411665</v>
+        <v>0.9702893030953696</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -5931,23 +5445,23 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_59.fasta</t>
+          <t>label_UMGS1778_78.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.01526224209904961</v>
+        <v>0.03586572150073391</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04138631380587572</v>
+        <v>0.0008768488808419806</v>
       </c>
       <c r="D70" t="n">
-        <v>2.22258753448871e-14</v>
+        <v>0.0007783959337841467</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9433514440950523</v>
+        <v>0.9624790336846399</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9433514440950523</v>
+        <v>0.9624790336846399</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -5958,23 +5472,23 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_6.fasta</t>
+          <t>label_UMGS1778_82.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1388783808687822</v>
+        <v>0.05964679976046492</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2939080708347152</v>
+        <v>0.0005559073817364968</v>
       </c>
       <c r="D71" t="n">
-        <v>2.877259341534704e-14</v>
+        <v>0.0005781210148783368</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5672135482964739</v>
+        <v>0.9392191718429203</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5672135482964739</v>
+        <v>0.9392191718429203</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -5985,23 +5499,23 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_63.fasta</t>
+          <t>label_UMGS1778_88.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01615744615188889</v>
+        <v>0.01314797192658188</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0257326057792417</v>
+        <v>0.0003632216349371415</v>
       </c>
       <c r="D72" t="n">
-        <v>2.22188577168966e-14</v>
+        <v>0.0004226966594400787</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9581099480688472</v>
+        <v>0.986066109779041</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9581099480688472</v>
+        <v>0.986066109779041</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -6012,23 +5526,23 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_69.fasta</t>
+          <t>label_UMGS1778_95.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.02355306845564538</v>
+        <v>0.05571724517720647</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02244855148517468</v>
+        <v>1.565452034661304e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>2.222764382635221e-14</v>
+        <v>0.0002784098993314345</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9539983800591577</v>
+        <v>0.9440027794714274</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9539983800591577</v>
+        <v>0.9440027794714274</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -6039,23 +5553,23 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_74.fasta</t>
+          <t>label_UMGS1778_96.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.006708860390530103</v>
+        <v>0.0334932778795132</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03452477483807098</v>
+        <v>0.0004911265741414352</v>
       </c>
       <c r="D74" t="n">
-        <v>2.220074949565956e-14</v>
+        <v>0.0004407721588048128</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9587663647713767</v>
+        <v>0.9655748233875405</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9587663647713767</v>
+        <v>0.9655748233875405</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -6066,23 +5580,23 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_75.fasta</t>
+          <t>label_UMGS1778_98.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01039663587735875</v>
+        <v>0.0259420994670764</v>
       </c>
       <c r="C75" t="n">
-        <v>0.02138336385830832</v>
+        <v>8.199068287664845e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>2.22092704919457e-14</v>
+        <v>8.587801337549393e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9682200002643108</v>
+        <v>0.9738900318366714</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9682200002643108</v>
+        <v>0.9738900318366714</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -6093,23 +5607,23 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_80.fasta</t>
+          <t>label_UMGS1778_10.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.08848585305932756</v>
+        <v>0.1988584746001065</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0671170977338838</v>
+        <v>0.1130324914931729</v>
       </c>
       <c r="D76" t="n">
-        <v>2.227528775801372e-14</v>
+        <v>2.912548254341681e-14</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8443970492067664</v>
+        <v>0.6881090339066915</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8443970492067664</v>
+        <v>0.6881090339066915</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -6120,23 +5634,23 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_90.fasta</t>
+          <t>label_UMGS1778_106.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.002079143191711966</v>
+        <v>0.000212929792327681</v>
       </c>
       <c r="C77" t="n">
-        <v>0.007848823247286611</v>
+        <v>0.01801910561347087</v>
       </c>
       <c r="D77" t="n">
-        <v>2.22006058859092e-14</v>
+        <v>2.223458011853316e-14</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9900720335609792</v>
+        <v>0.9817679645941791</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9900720335609792</v>
+        <v>0.9817679645941791</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -6147,23 +5661,23 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_91.fasta</t>
+          <t>label_UMGS1778_107.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01228265214989412</v>
+        <v>0.005582418148264918</v>
       </c>
       <c r="C78" t="n">
-        <v>0.009717328212411664</v>
+        <v>0.009994065211423146</v>
       </c>
       <c r="D78" t="n">
-        <v>2.220720799782597e-14</v>
+        <v>2.220299924467839e-14</v>
       </c>
       <c r="E78" t="n">
-        <v>0.978000019637672</v>
+        <v>0.9844235166402897</v>
       </c>
       <c r="F78" t="n">
-        <v>0.978000019637672</v>
+        <v>0.9844235166402897</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -6174,23 +5688,23 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_99.fasta</t>
+          <t>label_UMGS1778_109.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.03502935860360252</v>
+        <v>0.180876115322212</v>
       </c>
       <c r="C79" t="n">
-        <v>6.419716310416526e-05</v>
+        <v>0.0464025033773592</v>
       </c>
       <c r="D79" t="n">
-        <v>2.21927129964727e-14</v>
+        <v>7.962061439327764e-11</v>
       </c>
       <c r="E79" t="n">
-        <v>0.964906444233271</v>
+        <v>0.7727213812208081</v>
       </c>
       <c r="F79" t="n">
-        <v>0.964906444233271</v>
+        <v>0.7727213812208081</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -6201,23 +5715,23 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_0.fasta</t>
+          <t>label_UMGS1778_118.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3908939164376506</v>
+        <v>0.03064205265761332</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1619941471267465</v>
+        <v>0.001501214358423746</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001351171281354956</v>
+        <v>1.283657658684494e-13</v>
       </c>
       <c r="E80" t="n">
-        <v>0.445760765154248</v>
+        <v>0.9678567329838346</v>
       </c>
       <c r="F80" t="n">
-        <v>0.445760765154248</v>
+        <v>0.9678567329838346</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -6228,23 +5742,23 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_110.fasta</t>
+          <t>label_UMGS1778_2.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01887322466533954</v>
+        <v>0.2382057651147306</v>
       </c>
       <c r="C81" t="n">
-        <v>4.146585291944591e-07</v>
+        <v>0.189674185513476</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0003726933114411073</v>
+        <v>5.559408514065299e-14</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9807536673646902</v>
+        <v>0.5721200493717378</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9807536673646902</v>
+        <v>0.5721200493717378</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -6255,23 +5769,23 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_116.fasta</t>
+          <t>label_UMGS1778_25.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.03225490844722053</v>
+        <v>0.01656504847486052</v>
       </c>
       <c r="C82" t="n">
-        <v>2.70762219045536e-05</v>
+        <v>0.06905673700315387</v>
       </c>
       <c r="D82" t="n">
-        <v>2.74857920115792e-05</v>
+        <v>2.222124558111508e-14</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9676905295388634</v>
+        <v>0.9143782145219634</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9676905295388634</v>
+        <v>0.9143782145219634</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -6282,23 +5796,23 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_119.fasta</t>
+          <t>label_UMGS1778_31.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02809863596501787</v>
+        <v>0.0008975683360183157</v>
       </c>
       <c r="C83" t="n">
-        <v>3.730524842498606e-07</v>
+        <v>0.04261048775928345</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0005538856259786776</v>
+        <v>2.218005493858552e-14</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9713471053565191</v>
+        <v>0.956491943904676</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9713471053565191</v>
+        <v>0.956491943904676</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -6309,23 +5823,23 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_14.fasta</t>
+          <t>label_UMGS1778_38.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1066785108374843</v>
+        <v>0.005616915833671016</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1212652009516955</v>
+        <v>0.05336032773970158</v>
       </c>
       <c r="D84" t="n">
-        <v>0.005801395016894316</v>
+        <v>2.219056012030102e-14</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7662548931939257</v>
+        <v>0.9410227564266053</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7662548931939257</v>
+        <v>0.9410227564266053</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -6336,23 +5850,23 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_21.fasta</t>
+          <t>label_UMGS1778_43.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1019620374511763</v>
+        <v>0.005329636505993207</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1201548881550543</v>
+        <v>0.03264037504634196</v>
       </c>
       <c r="D85" t="n">
-        <v>0.005557332620529001</v>
+        <v>2.219721915713454e-14</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7723257417732403</v>
+        <v>0.9620299884476426</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7723257417732403</v>
+        <v>0.9620299884476426</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -6363,23 +5877,23 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_28.fasta</t>
+          <t>label_UMGS1778_47.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02293088562792692</v>
+        <v>0.01050328983978114</v>
       </c>
       <c r="C86" t="n">
-        <v>0.004824747429525391</v>
+        <v>0.02229682217862397</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0009465590542620252</v>
+        <v>2.220758624307931e-14</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9712978078882857</v>
+        <v>0.9671998879815726</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9712978078882857</v>
+        <v>0.9671998879815726</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -6390,23 +5904,23 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_33.fasta</t>
+          <t>label_UMGS1778_52.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.04575806623051024</v>
+        <v>0.03847027331408925</v>
       </c>
       <c r="C87" t="n">
-        <v>0.04614011589898423</v>
+        <v>0.01311431494476095</v>
       </c>
       <c r="D87" t="n">
-        <v>0.003286473299077604</v>
+        <v>2.221026043476919e-14</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9048153445714279</v>
+        <v>0.9484154117411275</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9048153445714279</v>
+        <v>0.9484154117411275</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -6417,23 +5931,23 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_36.fasta</t>
+          <t>label_UMGS1778_60.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0378249453093149</v>
+        <v>0.008202846848460716</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0295037249805561</v>
+        <v>0.009222427419783619</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001179444030698565</v>
+        <v>2.220252117328374e-14</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9314918856794304</v>
+        <v>0.9825747257317335</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9314918856794304</v>
+        <v>0.9825747257317335</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -6444,23 +5958,23 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_40.fasta</t>
+          <t>label_UMGS1778_64.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01763659977381032</v>
+        <v>0.003877129987059515</v>
       </c>
       <c r="C89" t="n">
-        <v>0.001640914100437692</v>
+        <v>0.01370406830293518</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001818212764833776</v>
+        <v>2.220107636547609e-14</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9789042733609182</v>
+        <v>0.9824188017099831</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9789042733609182</v>
+        <v>0.9824188017099831</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -6471,23 +5985,23 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_46.fasta</t>
+          <t>label_UMGS1778_65.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.03421264538893699</v>
+        <v>0.04938334371147747</v>
       </c>
       <c r="C90" t="n">
-        <v>0.001298971830218457</v>
+        <v>0.03799231323028414</v>
       </c>
       <c r="D90" t="n">
-        <v>0.001152679241248144</v>
+        <v>2.222102258714565e-14</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9633357035395964</v>
+        <v>0.9126243430582163</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9633357035395964</v>
+        <v>0.9126243430582163</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -6498,23 +6012,23 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_5.fasta</t>
+          <t>label_UMGS1778_67.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1369010838981991</v>
+        <v>0.01894652863365599</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4305885629457038</v>
+        <v>0.007088244227662631</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0004779964836439715</v>
+        <v>2.220329231504183e-14</v>
       </c>
       <c r="E91" t="n">
-        <v>0.432032356672453</v>
+        <v>0.9739652271386593</v>
       </c>
       <c r="F91" t="n">
-        <v>0.432032356672453</v>
+        <v>0.9739652271386593</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -6525,23 +6039,23 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_54.fasta</t>
+          <t>label_UMGS1778_7.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05626642283605639</v>
+        <v>0.1469988758930587</v>
       </c>
       <c r="C92" t="n">
-        <v>0.008819576000318293</v>
+        <v>0.04783488317820937</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002216188835143132</v>
+        <v>2.226824208291487e-14</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9326978123284821</v>
+        <v>0.8051662409287096</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9326978123284821</v>
+        <v>0.8051662409287096</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -6552,23 +6066,23 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_66.fasta</t>
+          <t>label_UMGS1778_70.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03692365151467236</v>
+        <v>0.003497416226144285</v>
       </c>
       <c r="C93" t="n">
-        <v>0.006949361242757522</v>
+        <v>0.009837956116730783</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0005670042540077192</v>
+        <v>2.220220577213059e-14</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9555599829885624</v>
+        <v>0.9866646276571027</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9555599829885624</v>
+        <v>0.9866646276571027</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -6579,23 +6093,23 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_71.fasta</t>
+          <t>label_UMGS1778_84.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01914236849451775</v>
+        <v>0.01493623128060324</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0007558585033432076</v>
+        <v>0.0007898753160638028</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0006605409989058928</v>
+        <v>2.21983655086236e-14</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9794412320032332</v>
+        <v>0.9842738934033108</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9794412320032332</v>
+        <v>0.9842738934033108</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -6606,23 +6120,23 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_72.fasta</t>
+          <t>label_UMGS1778_87.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02040215496771323</v>
+        <v>0.01205117602890813</v>
       </c>
       <c r="C95" t="n">
-        <v>0.002317714715944826</v>
+        <v>0.006006447664272841</v>
       </c>
       <c r="D95" t="n">
-        <v>0.000320637031527812</v>
+        <v>2.220470633391531e-14</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9769594932848141</v>
+        <v>0.9819423763067968</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9769594932848141</v>
+        <v>0.9819423763067968</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -6633,23 +6147,23 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_77.fasta</t>
+          <t>label_UMGS1778_93.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.02814583908555992</v>
+        <v>0.0356720597376613</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0007157448670276335</v>
+        <v>0.0002619719091246073</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0008491129520428305</v>
+        <v>2.219370775304351e-14</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9702893030953696</v>
+        <v>0.9640659683531918</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9702893030953696</v>
+        <v>0.9640659683531918</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -6660,23 +6174,23 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_78.fasta</t>
+          <t>label_UMGS1778_1.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.03586572150073391</v>
+        <v>0.03591749823259249</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0008768488808419806</v>
+        <v>0.09238090863765802</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0007783959337841467</v>
+        <v>6.826407973610765e-05</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9624790336846399</v>
+        <v>0.8716333290500133</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9624790336846399</v>
+        <v>0.8716333290500133</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -6687,23 +6201,23 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_82.fasta</t>
+          <t>label_UMGS1778_100.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.05964679976046492</v>
+        <v>0.05077859330343223</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0005559073817364968</v>
+        <v>0.04932633625387037</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0005781210148783368</v>
+        <v>0.0001746474348188599</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9392191718429203</v>
+        <v>0.8997204230078786</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9392191718429203</v>
+        <v>0.8997204230078786</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -6714,23 +6228,23 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_88.fasta</t>
+          <t>label_UMGS1778_103.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01314797192658188</v>
+        <v>0.02229855295737939</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0003632216349371415</v>
+        <v>0.006651460284004312</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0004226966594400787</v>
+        <v>0.0007885677763509183</v>
       </c>
       <c r="E99" t="n">
-        <v>0.986066109779041</v>
+        <v>0.9702614189822654</v>
       </c>
       <c r="F99" t="n">
-        <v>0.986066109779041</v>
+        <v>0.9702614189822654</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -6741,23 +6255,23 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_95.fasta</t>
+          <t>label_UMGS1778_108.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.05571724517720647</v>
+        <v>0.0715018871548018</v>
       </c>
       <c r="C100" t="n">
-        <v>1.565452034661304e-06</v>
+        <v>0.04533099522069484</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0002784098993314345</v>
+        <v>0.002031628269326643</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9440027794714274</v>
+        <v>0.8811354893551767</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9440027794714274</v>
+        <v>0.8811354893551767</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -6768,23 +6282,23 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_96.fasta</t>
+          <t>label_UMGS1778_13.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0334932778795132</v>
+        <v>0.07975166832362057</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0004911265741414352</v>
+        <v>0.1744515785607966</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0004407721588048128</v>
+        <v>0.1492777323524553</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9655748233875405</v>
+        <v>0.5965190207631276</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9655748233875405</v>
+        <v>0.5965190207631276</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -6795,23 +6309,23 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_98.fasta</t>
+          <t>label_UMGS1778_19.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0259420994670764</v>
+        <v>0.06675990865563523</v>
       </c>
       <c r="C102" t="n">
-        <v>8.199068287664845e-05</v>
+        <v>0.04126795705863507</v>
       </c>
       <c r="D102" t="n">
-        <v>8.587801337549393e-05</v>
+        <v>0.001676016357299424</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9738900318366714</v>
+        <v>0.8902961179284302</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9738900318366714</v>
+        <v>0.8902961179284302</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -6822,23 +6336,23 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_10.fasta</t>
+          <t>label_UMGS1778_24.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1988584746001065</v>
+        <v>0.04023618889438506</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1130324914931729</v>
+        <v>0.06946600989840848</v>
       </c>
       <c r="D103" t="n">
-        <v>2.912548254341681e-14</v>
+        <v>0.0007603525398186554</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6881090339066915</v>
+        <v>0.8895374486673877</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6881090339066915</v>
+        <v>0.8895374486673877</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -6849,23 +6363,23 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_106.fasta</t>
+          <t>label_UMGS1778_32.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.000212929792327681</v>
+        <v>0.03909780033131156</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01801910561347087</v>
+        <v>0.05334930374514991</v>
       </c>
       <c r="D104" t="n">
-        <v>2.223458011853316e-14</v>
+        <v>0.002303319156105302</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9817679645941791</v>
+        <v>0.9052495767674332</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9817679645941791</v>
+        <v>0.9052495767674332</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -6876,23 +6390,23 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_107.fasta</t>
+          <t>label_UMGS1778_34.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.005582418148264918</v>
+        <v>0.01788414406139439</v>
       </c>
       <c r="C105" t="n">
-        <v>0.009994065211423146</v>
+        <v>0.02423623840305737</v>
       </c>
       <c r="D105" t="n">
-        <v>2.220299924467839e-14</v>
+        <v>0.0004845758497632784</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9844235166402897</v>
+        <v>0.9573950416857849</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9844235166402897</v>
+        <v>0.9573950416857849</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -6903,23 +6417,23 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_109.fasta</t>
+          <t>label_UMGS1778_42.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.180876115322212</v>
+        <v>0.02326656975346261</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0464025033773592</v>
+        <v>0.01220901097501512</v>
       </c>
       <c r="D106" t="n">
-        <v>7.962061439327764e-11</v>
+        <v>0.000322066729978269</v>
       </c>
       <c r="E106" t="n">
-        <v>0.7727213812208081</v>
+        <v>0.9642023525415441</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7727213812208081</v>
+        <v>0.9642023525415441</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -6930,23 +6444,23 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_118.fasta</t>
+          <t>label_UMGS1778_45.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.03064205265761332</v>
+        <v>0.02902588272711297</v>
       </c>
       <c r="C107" t="n">
-        <v>0.001501214358423746</v>
+        <v>0.03655617681016616</v>
       </c>
       <c r="D107" t="n">
-        <v>1.283657658684494e-13</v>
+        <v>0.0008068208034912254</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9678567329838346</v>
+        <v>0.9336111196592296</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9678567329838346</v>
+        <v>0.9336111196592296</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6957,23 +6471,23 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_2.fasta</t>
+          <t>label_UMGS1778_55.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.2382057651147306</v>
+        <v>0.04684008206991819</v>
       </c>
       <c r="C108" t="n">
-        <v>0.189674185513476</v>
+        <v>0.01041855130706124</v>
       </c>
       <c r="D108" t="n">
-        <v>5.559408514065299e-14</v>
+        <v>0.0008516116857382355</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5721200493717378</v>
+        <v>0.9418897549372823</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5721200493717378</v>
+        <v>0.9418897549372823</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6984,23 +6498,23 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_25.fasta</t>
+          <t>label_UMGS1778_57.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.01656504847486052</v>
+        <v>0.04825504305395993</v>
       </c>
       <c r="C109" t="n">
-        <v>0.06905673700315387</v>
+        <v>0.0285820445869</v>
       </c>
       <c r="D109" t="n">
-        <v>2.222124558111508e-14</v>
+        <v>0.002488740932247056</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9143782145219634</v>
+        <v>0.920674171426893</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9143782145219634</v>
+        <v>0.920674171426893</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -7011,23 +6525,23 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_31.fasta</t>
+          <t>label_UMGS1778_58.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0008975683360183157</v>
+        <v>0.04812733275792391</v>
       </c>
       <c r="C110" t="n">
-        <v>0.04261048775928345</v>
+        <v>0.034711507434832</v>
       </c>
       <c r="D110" t="n">
-        <v>2.218005493858552e-14</v>
+        <v>0.001384805649925525</v>
       </c>
       <c r="E110" t="n">
-        <v>0.956491943904676</v>
+        <v>0.9157763541573185</v>
       </c>
       <c r="F110" t="n">
-        <v>0.956491943904676</v>
+        <v>0.9157763541573185</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -7038,23 +6552,23 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_38.fasta</t>
+          <t>label_UMGS1778_61.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.005616915833671016</v>
+        <v>0.01807997250055774</v>
       </c>
       <c r="C111" t="n">
-        <v>0.05336032773970158</v>
+        <v>0.04332778846570544</v>
       </c>
       <c r="D111" t="n">
-        <v>2.219056012030102e-14</v>
+        <v>0.0004405159586397469</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9410227564266053</v>
+        <v>0.9381517230750971</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9410227564266053</v>
+        <v>0.9381517230750971</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -7065,23 +6579,23 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_43.fasta</t>
+          <t>label_UMGS1778_68.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.005329636505993207</v>
+        <v>0.09552229205976126</v>
       </c>
       <c r="C112" t="n">
-        <v>0.03264037504634196</v>
+        <v>0.02431267575554779</v>
       </c>
       <c r="D112" t="n">
-        <v>2.219721915713454e-14</v>
+        <v>0.00167415643242243</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9620299884476426</v>
+        <v>0.8784908757522686</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9620299884476426</v>
+        <v>0.8784908757522686</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -7092,23 +6606,23 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_47.fasta</t>
+          <t>label_UMGS1778_73.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.01050328983978114</v>
+        <v>0.04718005928675499</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02229682217862397</v>
+        <v>0.007776234380314594</v>
       </c>
       <c r="D113" t="n">
-        <v>2.220758624307931e-14</v>
+        <v>0.0006048996888000324</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9671998879815726</v>
+        <v>0.9444388066441304</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9671998879815726</v>
+        <v>0.9444388066441304</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -7119,23 +6633,23 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_52.fasta</t>
+          <t>label_UMGS1778_76.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.03847027331408925</v>
+        <v>0.1258174750463645</v>
       </c>
       <c r="C114" t="n">
-        <v>0.01311431494476095</v>
+        <v>0.1217319788892362</v>
       </c>
       <c r="D114" t="n">
-        <v>2.221026043476919e-14</v>
+        <v>0.02238348298122104</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9484154117411275</v>
+        <v>0.7300670630831783</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9484154117411275</v>
+        <v>0.7300670630831783</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -7146,23 +6660,23 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_60.fasta</t>
+          <t>label_UMGS1778_81.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.008202846848460716</v>
+        <v>0.09139471832822152</v>
       </c>
       <c r="C115" t="n">
-        <v>0.009222427419783619</v>
+        <v>0.01880803826924926</v>
       </c>
       <c r="D115" t="n">
-        <v>2.220252117328374e-14</v>
+        <v>0.003297723493476809</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9825747257317335</v>
+        <v>0.8864995199090523</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9825747257317335</v>
+        <v>0.8864995199090523</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -7173,23 +6687,23 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_64.fasta</t>
+          <t>label_UMGS1778_83.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.003877129987059515</v>
+        <v>0.05012368878110385</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01370406830293518</v>
+        <v>0.002522312323232589</v>
       </c>
       <c r="D116" t="n">
-        <v>2.220107636547609e-14</v>
+        <v>0.0002930222404278868</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9824188017099831</v>
+        <v>0.9470609766552357</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9824188017099831</v>
+        <v>0.9470609766552357</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -7200,23 +6714,23 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_65.fasta</t>
+          <t>label_UMGS1778_86.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.04938334371147747</v>
+        <v>0.3041440119063787</v>
       </c>
       <c r="C117" t="n">
-        <v>0.03799231323028414</v>
+        <v>0.09668208879852518</v>
       </c>
       <c r="D117" t="n">
-        <v>2.222102258714565e-14</v>
+        <v>0.05361725160721931</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9126243430582163</v>
+        <v>0.5455566476878769</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9126243430582163</v>
+        <v>0.5455566476878769</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -7227,23 +6741,23 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_67.fasta</t>
+          <t>label_UMGS1778_94.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.01894652863365599</v>
+        <v>0.02872540551882873</v>
       </c>
       <c r="C118" t="n">
-        <v>0.007088244227662631</v>
+        <v>0.0286433621185202</v>
       </c>
       <c r="D118" t="n">
-        <v>2.220329231504183e-14</v>
+        <v>0.0006668838613446122</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9739652271386593</v>
+        <v>0.9419643485013065</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9739652271386593</v>
+        <v>0.9419643485013065</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -7254,754 +6768,25 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1778_7.fasta</t>
+          <t>label_UMGS1778_97.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1469988758930587</v>
+        <v>0.0272325754484974</v>
       </c>
       <c r="C119" t="n">
-        <v>0.04783488317820937</v>
+        <v>0.0009202199731973105</v>
       </c>
       <c r="D119" t="n">
-        <v>2.226824208291487e-14</v>
+        <v>0.0008091865145866334</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8051662409287096</v>
+        <v>0.9710380180637186</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8051662409287096</v>
+        <v>0.9710380180637186</v>
       </c>
       <c r="G119" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_70.fasta</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.003497416226144285</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.009837956116730783</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2.220220577213059e-14</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.9866646276571027</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.9866646276571027</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_84.fasta</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.01493623128060324</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.0007898753160638028</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2.21983655086236e-14</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.9842738934033108</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.9842738934033108</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_87.fasta</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.01205117602890813</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.006006447664272841</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2.220470633391531e-14</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.9819423763067968</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.9819423763067968</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_93.fasta</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.0356720597376613</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.0002619719091246073</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2.219370775304351e-14</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.9640659683531918</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.9640659683531918</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_1.fasta</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.03591749823259249</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.09238090863765802</v>
-      </c>
-      <c r="D124" t="n">
-        <v>6.826407973610765e-05</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.8716333290500133</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.8716333290500133</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_100.fasta</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0.05077859330343223</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.04932633625387037</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.0001746474348188599</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.8997204230078786</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.8997204230078786</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_103.fasta</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.02229855295737939</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.006651460284004312</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.0007885677763509183</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.9702614189822654</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.9702614189822654</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_108.fasta</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.0715018871548018</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.04533099522069484</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.002031628269326643</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.8811354893551767</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.8811354893551767</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_13.fasta</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0.07975166832362057</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.1744515785607966</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.1492777323524553</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.5965190207631276</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.5965190207631276</v>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_19.fasta</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.06675990865563523</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.04126795705863507</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.001676016357299424</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.8902961179284302</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.8902961179284302</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_24.fasta</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.04023618889438506</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.06946600989840848</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.0007603525398186554</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.8895374486673877</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.8895374486673877</v>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_32.fasta</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.03909780033131156</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.05334930374514991</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.002303319156105302</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.9052495767674332</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.9052495767674332</v>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_34.fasta</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.01788414406139439</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.02423623840305737</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.0004845758497632784</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.9573950416857849</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.9573950416857849</v>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_42.fasta</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.02326656975346261</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.01220901097501512</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.000322066729978269</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.9642023525415441</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.9642023525415441</v>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_45.fasta</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.02902588272711297</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.03655617681016616</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.0008068208034912254</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.9336111196592296</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.9336111196592296</v>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_55.fasta</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.04684008206991819</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.01041855130706124</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.0008516116857382355</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.9418897549372823</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.9418897549372823</v>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_57.fasta</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.04825504305395993</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.0285820445869</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.002488740932247056</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.920674171426893</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.920674171426893</v>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_58.fasta</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.04812733275792391</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.034711507434832</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.001384805649925525</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.9157763541573185</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.9157763541573185</v>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_61.fasta</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.01807997250055774</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.04332778846570544</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.0004405159586397469</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.9381517230750971</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.9381517230750971</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_68.fasta</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.09552229205976126</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.02431267575554779</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.00167415643242243</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.8784908757522686</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.8784908757522686</v>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_73.fasta</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.04718005928675499</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.007776234380314594</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.0006048996888000324</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.9444388066441304</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.9444388066441304</v>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_76.fasta</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.1258174750463645</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.1217319788892362</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.02238348298122104</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.7300670630831783</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.7300670630831783</v>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_81.fasta</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.09139471832822152</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.01880803826924926</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.003297723493476809</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.8864995199090523</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.8864995199090523</v>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_83.fasta</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.05012368878110385</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.002522312323232589</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.0002930222404278868</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.9470609766552357</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.9470609766552357</v>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_86.fasta</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.3041440119063787</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.09668208879852518</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.05361725160721931</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.5455566476878769</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.5455566476878769</v>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_94.fasta</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.02872540551882873</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.0286433621185202</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.0006668838613446122</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.9419643485013065</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.9419643485013065</v>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp900554995</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1778_97.fasta</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.0272325754484974</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.0009202199731973105</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.0008091865145866334</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.9710380180637186</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.9710380180637186</v>
-      </c>
-      <c r="G146" t="inlineStr">
         <is>
           <t>s__CAG-488 sp900554995</t>
         </is>
